--- a/xlsx/sc_ShopBillingItem.xlsx
+++ b/xlsx/sc_ShopBillingItem.xlsx
@@ -150,7 +150,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">[{"id":2, "amount::1}, {"id":2, "amount::1}]</t>
+      <t xml:space="preserve">[{"id":2, "amount":1}, {"id":2, "amount":1}]</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -238,7 +238,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">[{"id":3, "amount::328}]</t>
+      <t xml:space="preserve">[{"id":3, "amount":328}]</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -818,8 +818,8 @@
     <col min="8" max="8" width="20.0" customWidth="true"/>
     <col min="9" max="9" width="23.6144578313253" customWidth="true"/>
     <col min="10" max="10" width="17.951807228915662" customWidth="true"/>
-    <col min="11" max="11" width="12.89156626506024" customWidth="true"/>
-    <col min="12" max="12" width="68.79518072289156" customWidth="true"/>
+    <col min="11" max="11" width="68.79518072289156" customWidth="true"/>
+    <col min="12" max="12" width="12.89156626506024" customWidth="true"/>
     <col min="13" max="13" width="12.89156626506024" customWidth="true"/>
     <col min="14" max="14" width="12.89156626506024" customWidth="true"/>
     <col min="15" max="15" width="12.89156626506024" customWidth="true"/>
@@ -864,10 +864,10 @@
       <c r="J1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25"/>
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
@@ -913,11 +913,11 @@
       <c r="J2" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="K2" s="24" t="n">
+      <c r="K2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="24" t="n">
         <v>-1.0</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>14</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
@@ -960,10 +960,10 @@
       <c r="J3" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="K3" s="24" t="n">
+      <c r="K3" s="25"/>
+      <c r="L3" s="24" t="n">
         <v>-1.0</v>
       </c>
-      <c r="L3" s="25"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -1007,10 +1007,10 @@
       <c r="J4" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="K4" s="24" t="n">
+      <c r="K4" s="25"/>
+      <c r="L4" s="24" t="n">
         <v>-1.0</v>
       </c>
-      <c r="L4" s="25"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>

--- a/xlsx/sc_ShopBillingItem.xlsx
+++ b/xlsx/sc_ShopBillingItem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="23" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -114,6 +114,17 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">rate</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">diamond</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -173,6 +184,19 @@
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">beginAt endAt 为开始结束时间 没有的话填0 limitAmout 限购次数 不限填-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">rate 商品出现概率
+每个用户独立 
+对于金币和钻石商店的商品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -820,7 +844,7 @@
     <col min="10" max="10" width="17.951807228915662" customWidth="true"/>
     <col min="11" max="11" width="68.79518072289156" customWidth="true"/>
     <col min="12" max="12" width="12.89156626506024" customWidth="true"/>
-    <col min="13" max="13" width="12.89156626506024" customWidth="true"/>
+    <col min="13" max="13" width="26.385542168674696" customWidth="true"/>
     <col min="14" max="14" width="12.89156626506024" customWidth="true"/>
     <col min="15" max="15" width="12.89156626506024" customWidth="true"/>
     <col min="16" max="16" width="12.89156626506024" customWidth="true"/>
@@ -868,8 +892,10 @@
       <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
@@ -889,23 +915,23 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="24" t="n">
         <v>20.0</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="24" t="n">
         <v>0.0</v>
@@ -914,13 +940,17 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="24" t="n">
         <v>-1.0</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="M2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="24" t="n">
+        <v>100.0</v>
+      </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -940,18 +970,18 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="24" t="n">
         <v>100.0</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="24" t="n">
@@ -965,7 +995,9 @@
         <v>-1.0</v>
       </c>
       <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="N3" s="24" t="n">
+        <v>100.0</v>
+      </c>
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
@@ -985,20 +1017,20 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="24" t="n">
         <v>328.0</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="24" t="n">
@@ -1012,7 +1044,9 @@
         <v>-1.0</v>
       </c>
       <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="N4" s="24" t="n">
+        <v>100.0</v>
+      </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>

--- a/xlsx/sc_ShopBillingItem.xlsx
+++ b/xlsx/sc_ShopBillingItem.xlsx
@@ -183,7 +183,9 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">beginAt endAt 为开始结束时间 没有的话填0 limitAmout 限购次数 不限填-1</t>
+      <t xml:space="preserve">beginAt endAt 为开始结束时间 没的话留空
+时区格式 20200916_1425 表示2020年9月16日 14点25分 并且 这个时间为utc时间
+limitAmout 限购次数 不限填-1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -493,7 +495,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -542,7 +544,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -933,13 +935,9 @@
       <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="24" t="n">
@@ -984,12 +982,8 @@
         <v>13</v>
       </c>
       <c r="H3" s="25"/>
-      <c r="I3" s="24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="24" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="25"/>
       <c r="L3" s="24" t="n">
         <v>-1.0</v>
@@ -1033,12 +1027,8 @@
         <v>22</v>
       </c>
       <c r="H4" s="25"/>
-      <c r="I4" s="24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="24" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="24" t="n">
         <v>-1.0</v>

--- a/xlsx/sc_ShopBillingItem.xlsx
+++ b/xlsx/sc_ShopBillingItem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="27" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -301,6 +301,17 @@
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">[{"id":4, "amount":1}]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
 </sst>
 </file>
 
@@ -540,7 +551,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:ns9="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -589,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:ns9="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1176,9 +1187,7 @@
       <c r="H6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="I6" s="23"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="28"/>
@@ -1224,9 +1233,7 @@
       <c r="H7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="28"/>
@@ -1272,9 +1279,7 @@
       <c r="H8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="I8" s="23"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="28"/>
@@ -1320,9 +1325,7 @@
       <c r="H9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="28"/>
@@ -1348,21 +1351,37 @@
       <c r="AB9" s="26"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="24" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="24" t="n">
+        <v>10.0</v>
+      </c>
       <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="H10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="24" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="24" t="n">
+        <v>100.0</v>
+      </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
@@ -1390,7 +1409,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>

--- a/xlsx/sc_ShopBillingItem.xlsx
+++ b/xlsx/sc_ShopBillingItem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="26" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -150,18 +150,7 @@
       <t xml:space="preserve">type类型(根据 type 决定price的消耗类型)
 gold 金币商品
 diamond 钻石商品
-pay 氪金商品</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">shop/shopItem001</t>
+money 氪金商品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -172,7 +161,18 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">day</t>
+      <t xml:space="preserve">Item/shopItem001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">DAY</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -201,7 +201,7 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Arial"/>
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
@@ -238,11 +238,11 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Arial"/>
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">shop/shopItem002</t>
+      <t xml:space="preserve">WEEK</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -253,7 +253,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">week</t>
+      <t xml:space="preserve">MONTH</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -264,29 +264,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">month</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">pay</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion" alignment="left"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Microsoft YaHei"/>
-        <sz val="10.0"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">shop/shopItem003</t>
+      <t xml:space="preserve">money</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -297,7 +275,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">none</t>
+      <t xml:space="preserve">NONE</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -562,7 +540,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:ns9="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -611,7 +589,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:ns9="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -993,7 +971,7 @@
       <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
@@ -1011,7 +989,7 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="24" t="n">
@@ -1045,11 +1023,11 @@
         <v>19</v>
       </c>
       <c r="C3" s="23"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="24" t="n">
         <v>100.0</v>
@@ -1091,11 +1069,11 @@
         <v>19</v>
       </c>
       <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
-        <v>20</v>
+      <c r="D4" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="24" t="n">
         <v>600.0</v>
@@ -1133,24 +1111,24 @@
       <c r="A5" s="24" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="24" t="n">
         <v>328.0</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="24"/>
@@ -1185,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -1233,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="25" t="s">
@@ -1281,11 +1259,11 @@
         <v>11</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="24" t="n">
         <v>50.0</v>
@@ -1329,11 +1307,11 @@
         <v>11</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="24" t="n">
         <v>60.0</v>
